--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2076842043941987</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.923278109985937</v>
+        <v>-1.924072202632633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04140390011641417</v>
+        <v>0.03905861162567614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007926087425469838</v>
+        <v>0.005971155676814385</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.215830338114129</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.790833058033652</v>
+        <v>-1.79333574843652</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.008782125547136962</v>
+        <v>-0.01133203652364408</v>
       </c>
       <c r="G3" t="n">
-        <v>0.009995922569980243</v>
+        <v>0.008052008955173894</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2343302050467486</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.763135830565684</v>
+        <v>-1.766600246651667</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0516662765069742</v>
+        <v>-0.05368416902048168</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006046708594636818</v>
+        <v>0.004113813113679573</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2564547883997212</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.788504296743687</v>
+        <v>-1.792522767560368</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08685977004013629</v>
+        <v>-0.08856758078674752</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02908562647311498</v>
+        <v>0.02677024434568167</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2709496890239548</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.753993140499609</v>
+        <v>-1.757561441847598</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.14492690944404</v>
+        <v>-0.1458492846491222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03398554799772403</v>
+        <v>0.03105629841298345</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2631827732143273</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.612841401777848</v>
+        <v>-1.617073939195026</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1977777494799531</v>
+        <v>-0.1970568487223974</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03047391133810219</v>
+        <v>0.02807353217811864</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2241322438681687</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.471599156956613</v>
+        <v>-1.475316990121125</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.2899255508982593</v>
+        <v>-0.2875487820250953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05712048104260153</v>
+        <v>0.0542809505477751</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1511477898293887</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.250796541630113</v>
+        <v>-1.254173599654864</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3713322458328096</v>
+        <v>-0.3665362095702064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08144222450493976</v>
+        <v>0.07834298085509871</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.05038532067907175</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9494167394459886</v>
+        <v>-0.9505665604140988</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4122205405468375</v>
+        <v>-0.4058426150673272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1222927427600565</v>
+        <v>0.1187653659092217</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.07150658233707567</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7450232734590485</v>
+        <v>-0.7441339526555136</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5121439964243691</v>
+        <v>-0.503694661781227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1215356395627109</v>
+        <v>0.1179437279279027</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2060884266538233</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5163135730766947</v>
+        <v>-0.5131702568914571</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6323691509284369</v>
+        <v>-0.6222151535769262</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1344441703764978</v>
+        <v>0.1308632768755388</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3521747263760321</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2671888446910709</v>
+        <v>-0.2625816907230238</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7677489615323878</v>
+        <v>-0.7576831092516699</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1982076849803887</v>
+        <v>0.1946614199000982</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.509351963283758</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04037898538812697</v>
+        <v>-0.03448585779797719</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8821132558382925</v>
+        <v>-0.8716657039206592</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2618814804943654</v>
+        <v>0.2581667953680958</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.6776912575657881</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3094514863783148</v>
+        <v>0.3155885869322662</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.02285024052159</v>
+        <v>-1.013106275151178</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2980917903798878</v>
+        <v>0.2951011540494164</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8506968965252045</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5760368088765271</v>
+        <v>0.5825107495224369</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.170660867136013</v>
+        <v>-1.162627860550455</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3241953234875383</v>
+        <v>0.3222954824081284</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.021585596805778</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8269275867162502</v>
+        <v>0.8334692101843759</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.305426810282657</v>
+        <v>-1.298752969208342</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3552475727125583</v>
+        <v>0.3540560402377337</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.181669817219902</v>
       </c>
       <c r="E18" t="n">
-        <v>1.067639182898522</v>
+        <v>1.074653012103038</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.505128125269</v>
+        <v>-1.499022505097474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4057310879900353</v>
+        <v>0.4049283382381719</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.32528950743188</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3365792380022</v>
+        <v>1.342418848942226</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.710322766988682</v>
+        <v>-1.704856198580405</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4416895548161495</v>
+        <v>0.4411905907546972</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.447738477869286</v>
       </c>
       <c r="E20" t="n">
-        <v>1.630572955459621</v>
+        <v>1.635930916548529</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.913828486191208</v>
+        <v>-1.909586504659303</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5068130219408441</v>
+        <v>0.5062337829042055</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.547282352393827</v>
       </c>
       <c r="E21" t="n">
-        <v>1.829127597516096</v>
+        <v>1.832946167904372</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.142634988749522</v>
+        <v>-2.138846324724552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5808611774833137</v>
+        <v>0.5801072223242106</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.62284637248657</v>
       </c>
       <c r="E22" t="n">
-        <v>1.962384056325412</v>
+        <v>1.965606073466715</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.312012038354447</v>
+        <v>-2.308771132983689</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6429184553597146</v>
+        <v>0.6422101467551293</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.67240666950472</v>
       </c>
       <c r="E23" t="n">
-        <v>2.157417617607538</v>
+        <v>2.158883029409469</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.464450281185494</v>
+        <v>-2.461377795860715</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7002678420443051</v>
+        <v>0.6995689775544477</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.693968081009782</v>
       </c>
       <c r="E24" t="n">
-        <v>2.26108094291728</v>
+        <v>2.260723640576745</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.704386672950525</v>
+        <v>-2.700737309617789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7480109900315977</v>
+        <v>0.7476631318057901</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.685488872494498</v>
       </c>
       <c r="E25" t="n">
-        <v>2.402438878143931</v>
+        <v>2.400046369079554</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.864110263284512</v>
+        <v>-2.860412105359016</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7889937258929036</v>
+        <v>0.7878163595901707</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.646516044110772</v>
       </c>
       <c r="E26" t="n">
-        <v>2.54900996470033</v>
+        <v>2.545056028667622</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.035073137154147</v>
+        <v>-3.031113692054515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8198744070337018</v>
+        <v>0.8190134185743504</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.579440738932409</v>
       </c>
       <c r="E27" t="n">
-        <v>2.59919441634476</v>
+        <v>2.594146537022748</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.15299314065507</v>
+        <v>-3.147338476961797</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8612679618856673</v>
+        <v>0.8601724445772421</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.489108551041051</v>
       </c>
       <c r="E28" t="n">
-        <v>2.613952419626075</v>
+        <v>2.608753434468419</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.239037682930533</v>
+        <v>-3.232385091114355</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8856589621893428</v>
+        <v>0.883770139243782</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.381383493614318</v>
       </c>
       <c r="E29" t="n">
-        <v>2.62140067810807</v>
+        <v>2.615611435779926</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.327736808454069</v>
+        <v>-3.318970308957985</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8855708171185499</v>
+        <v>0.8833734864252142</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.261413389703864</v>
       </c>
       <c r="E30" t="n">
-        <v>2.617629328293433</v>
+        <v>2.611145943532796</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.36021826704123</v>
+        <v>-3.349578684790798</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8962442407800899</v>
+        <v>0.8944136565420172</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.13486076801044</v>
       </c>
       <c r="E31" t="n">
-        <v>2.60754458778326</v>
+        <v>2.601026574601954</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.436285102106768</v>
+        <v>-3.423833036838158</v>
       </c>
       <c r="G31" t="n">
-        <v>0.860318828355523</v>
+        <v>0.8582505672301339</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.005615496854352</v>
       </c>
       <c r="E32" t="n">
-        <v>2.571239836750459</v>
+        <v>2.564723397588275</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.476770447925743</v>
+        <v>-3.462032119883444</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8565411824644014</v>
+        <v>0.8542509846429088</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8787174352364205</v>
       </c>
       <c r="E33" t="n">
-        <v>2.503997739888494</v>
+        <v>2.497574167854466</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.512749377000434</v>
+        <v>-3.496313469335812</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8679024524819497</v>
+        <v>0.8645970123272183</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7560557876121315</v>
       </c>
       <c r="E34" t="n">
-        <v>2.446382343972404</v>
+        <v>2.439971364091346</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.532280593267093</v>
+        <v>-3.515620387877686</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8621383944597466</v>
+        <v>0.85843944952469</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6411239143435333</v>
       </c>
       <c r="E35" t="n">
-        <v>2.388057065432607</v>
+        <v>2.382200140282247</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.50240964539261</v>
+        <v>-3.484975022595523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8137703608812977</v>
+        <v>0.8097156876248272</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5346561006302715</v>
       </c>
       <c r="E36" t="n">
-        <v>2.3022494130349</v>
+        <v>2.296145366882496</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.483493870602379</v>
+        <v>-3.465879809625463</v>
       </c>
       <c r="G36" t="n">
-        <v>0.805081775331718</v>
+        <v>0.8007154462892299</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4388162938416387</v>
       </c>
       <c r="E37" t="n">
-        <v>2.154348280321002</v>
+        <v>2.149031243729248</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.42896670020228</v>
+        <v>-3.411382545588669</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7597752089441989</v>
+        <v>0.755608780330116</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.3527856427721831</v>
       </c>
       <c r="E38" t="n">
-        <v>2.069661329537661</v>
+        <v>2.064160132708715</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.387326811357831</v>
+        <v>-3.369821357700285</v>
       </c>
       <c r="G38" t="n">
-        <v>0.752347412710781</v>
+        <v>0.7486579118904522</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.277057913128622</v>
       </c>
       <c r="E39" t="n">
-        <v>1.986902552177913</v>
+        <v>1.981824766492597</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.27876356452348</v>
+        <v>-3.261634301435925</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6986607685214572</v>
+        <v>0.6951207995176519</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.210180048595779</v>
       </c>
       <c r="E40" t="n">
-        <v>1.862392917625665</v>
+        <v>1.857130971703157</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.197770049608271</v>
+        <v>-3.181226321633841</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6652223063085454</v>
+        <v>0.6616587270179206</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.1517326887282572</v>
       </c>
       <c r="E41" t="n">
-        <v>1.755515445270227</v>
+        <v>1.751177448571922</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.140476540602487</v>
+        <v>-3.123984755259059</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6201848971907687</v>
+        <v>0.6170746354070786</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.1001303335844462</v>
       </c>
       <c r="E42" t="n">
-        <v>1.623851893811667</v>
+        <v>1.620732187913249</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.080715756624063</v>
+        <v>-3.064776451992212</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5742550192312147</v>
+        <v>0.5714123406981456</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.05434876831415594</v>
       </c>
       <c r="E43" t="n">
-        <v>1.502879080224981</v>
+        <v>1.500289818770442</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.978608349215727</v>
+        <v>-2.963540264167516</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5204849520284619</v>
+        <v>0.5179004126312862</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.01308404048359909</v>
       </c>
       <c r="E44" t="n">
-        <v>1.314283257148976</v>
+        <v>1.312713960085039</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.925766953294542</v>
+        <v>-2.911225377642406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4756442953008479</v>
+        <v>0.4734107621677223</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.02476496238962663</v>
       </c>
       <c r="E45" t="n">
-        <v>1.134387037756399</v>
+        <v>1.133483550780772</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.814137517211897</v>
+        <v>-2.800264112676753</v>
       </c>
       <c r="G45" t="n">
-        <v>0.430380227429604</v>
+        <v>0.4285905676886851</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.05976730865987434</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9653106258036428</v>
+        <v>0.9660913392878079</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.65840721338865</v>
+        <v>-2.645694647955465</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3736510042788059</v>
+        <v>0.3717873656391859</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.09275228258408484</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8919896670952141</v>
+        <v>0.8932630485643464</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.614311067705411</v>
+        <v>-2.601696878467307</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3383347372541824</v>
+        <v>0.3366395186605416</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1238992346308488</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7501044354629276</v>
+        <v>0.7525237028523667</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.539019437057114</v>
+        <v>-2.527004162094665</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3470406370140965</v>
+        <v>0.3455547629635887</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1540397670940573</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6170463030628952</v>
+        <v>0.6205846980475791</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.481662180276917</v>
+        <v>-2.469613850912921</v>
       </c>
       <c r="G49" t="n">
-        <v>0.3035615068264076</v>
+        <v>0.3022487748792428</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1828456730392321</v>
       </c>
       <c r="E50" t="n">
-        <v>0.487114172637766</v>
+        <v>0.491631607515899</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.422449154952706</v>
+        <v>-2.410637715466466</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2587759407680392</v>
+        <v>0.2580392998192704</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2108237526050454</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3750392891437931</v>
+        <v>0.3800415219112868</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.394363931771338</v>
+        <v>-2.382569806495432</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2420142111453081</v>
+        <v>0.241264978043569</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.237739541828077</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2201274752636221</v>
+        <v>0.2256900588382987</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.397723675585754</v>
+        <v>-2.385756408206505</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2270862137988924</v>
+        <v>0.2263165184485764</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2649601616469069</v>
       </c>
       <c r="E53" t="n">
-        <v>0.165822241559627</v>
+        <v>0.172606263972433</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.311557933837951</v>
+        <v>-2.300449293889372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1904194383681929</v>
+        <v>0.1897300179930632</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2927700705102643</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06324971150094641</v>
+        <v>0.07012974908015172</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.270455572523427</v>
+        <v>-2.259611367787226</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1674985719238123</v>
+        <v>0.1668469280075938</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3226523315155252</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.02400918652659981</v>
+        <v>-0.01679703091280007</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.231243608173584</v>
+        <v>-2.221022715009418</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1509808152648829</v>
+        <v>0.1504220384768211</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3553878885780313</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.06299291810385395</v>
+        <v>-0.05543605230248935</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.206989547533462</v>
+        <v>-2.197323496109554</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1224816250546126</v>
+        <v>0.1219448845342491</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3922002667643428</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.1326448382405307</v>
+        <v>-0.1246708573720214</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.182755949141916</v>
+        <v>-2.173686450964982</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1209076059333119</v>
+        <v>0.1200922640284782</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4334197836894138</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.2097764972416283</v>
+        <v>-0.2017663139333291</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.166741878601803</v>
+        <v>-2.158010794535948</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1070074430731055</v>
+        <v>0.1061496026519967</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4796300881049489</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2850334994692568</v>
+        <v>-0.2772956214689426</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.161430351076974</v>
+        <v>-2.152982590452953</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0865436204770753</v>
+        <v>0.08567948397948122</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5314837946732385</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3254448663895306</v>
+        <v>-0.3175763448021485</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.172218678134369</v>
+        <v>-2.163559211938533</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06014574579374145</v>
+        <v>0.0595602106806176</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5892516067193793</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3527918746030088</v>
+        <v>-0.3452176945913099</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.123163585209472</v>
+        <v>-2.115675976249445</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02295954405301271</v>
+        <v>0.02276436568197142</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.6531509640199015</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3941145985945158</v>
+        <v>-0.3861909863378881</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.106370375204315</v>
+        <v>-2.099380943296179</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05811683514638487</v>
+        <v>0.0577170342895745</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7223013422938968</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.4049422761299432</v>
+        <v>-0.397220138320842</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.132746213619951</v>
+        <v>-2.126203016132704</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0272880966365896</v>
+        <v>0.02710236238027612</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.7959577045865512</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.3914796905854584</v>
+        <v>-0.3833042352694226</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.105181203758173</v>
+        <v>-2.099628064298224</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01040201950327582</v>
+        <v>0.01033433668105989</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8718545083074627</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4457329816584505</v>
+        <v>-0.437899088491737</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.115273814363952</v>
+        <v>-2.109719887894443</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009942405919856021</v>
+        <v>0.009800744198938957</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.9486500116957187</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4651642477109075</v>
+        <v>-0.457278411913191</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.104435118694676</v>
+        <v>-2.099255808776036</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.02318912256440216</v>
+        <v>-0.02346929796799368</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.023609789151836</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.4883511233867879</v>
+        <v>-0.4810224903580119</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.135505469139591</v>
+        <v>-2.13008218625715</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.02330717399849971</v>
+        <v>-0.02362355184188115</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.095831826449264</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.433847563273509</v>
+        <v>-0.4262245886690498</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.168164004877898</v>
+        <v>-2.162957936634196</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04512465303884854</v>
+        <v>-0.04539223628946966</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.162640831323853</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.3984022266809388</v>
+        <v>-0.391289234271781</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.19348210244402</v>
+        <v>-2.188172935947872</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.07434946606403842</v>
+        <v>-0.07453520032035189</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-1.22230816144342</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3206016095532884</v>
+        <v>-0.313841197427302</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.202601969232836</v>
+        <v>-2.197244008143928</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.08242261013718964</v>
+        <v>-0.08262723262295874</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-1.27185316638211</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.2666206237882813</v>
+        <v>-0.2598161391268984</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.228039692252176</v>
+        <v>-2.2226471027426</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08720762826594373</v>
+        <v>-0.08716827778791121</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-1.309886433376747</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.2061830115876988</v>
+        <v>-0.1991943666891238</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.280078338421498</v>
+        <v>-2.27445279408197</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.07142966059402564</v>
+        <v>-0.07100310141215314</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-1.334544888871839</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.07860561376803547</v>
+        <v>-0.07162798700330952</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.289764852093983</v>
+        <v>-2.284144029811818</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08703291214347936</v>
+        <v>-0.08676060683549433</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-1.345196828817372</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.005250026638938219</v>
+        <v>0.001648899169722696</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.333949142848014</v>
+        <v>-2.328315728412879</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07491453892858536</v>
+        <v>-0.07442816702010345</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.34109487915015</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09132391654846549</v>
+        <v>0.09850616579896052</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.364358405261983</v>
+        <v>-2.358551061713944</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.07972631538240156</v>
+        <v>-0.07915337242224811</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.321742520936716</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2281219183807082</v>
+        <v>0.2354300891609074</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.388744683508295</v>
+        <v>-2.383201775172634</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.08969615249672012</v>
+        <v>-0.08876118513866751</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.287746181756521</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3721934625724815</v>
+        <v>0.3795551500028048</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.329269584000388</v>
+        <v>-2.324453085489207</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.09647387883304089</v>
+        <v>-0.09492504401768101</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.239178296867679</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5561537993362567</v>
+        <v>0.5637358494435623</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.324980381894843</v>
+        <v>-2.3206691435216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.07261332297324376</v>
+        <v>-0.07140447628808483</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-1.178106429374192</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6766245008232475</v>
+        <v>0.6842553455233132</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.258286830696651</v>
+        <v>-2.254363588036809</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.0596748857961521</v>
+        <v>-0.05774041629607356</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-1.105452613405007</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8316024235065133</v>
+        <v>0.8391844736138186</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.238770567611644</v>
+        <v>-2.235302216477858</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.03927244994585258</v>
+        <v>-0.03740408924886867</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-1.023714082758922</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9549567280237269</v>
+        <v>0.9628646000891415</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.200018216845221</v>
+        <v>-2.196859947478331</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.01148314235928894</v>
+        <v>-0.009386548889716425</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.934216291554705</v>
       </c>
       <c r="E82" t="n">
-        <v>1.10655523165356</v>
+        <v>1.114242741041993</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.144547421981903</v>
+        <v>-2.141496972924822</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01547485485090749</v>
+        <v>-0.01323817367953921</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.8394320073527336</v>
       </c>
       <c r="E83" t="n">
-        <v>1.175511435338622</v>
+        <v>1.183287089797847</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.089000287191201</v>
+        <v>-2.086632175423205</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01190835580236058</v>
+        <v>0.01450706137162801</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.740597322069552</v>
       </c>
       <c r="E84" t="n">
-        <v>1.31184352751096</v>
+        <v>1.319475946230147</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.008127971748333</v>
+        <v>-2.00604318342217</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04070346160743536</v>
+        <v>0.04318568976172655</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.6396794348157896</v>
       </c>
       <c r="E85" t="n">
-        <v>1.321769292089882</v>
+        <v>1.329500874013711</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.854246353383053</v>
+        <v>-1.853006813325029</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05637282195998371</v>
+        <v>0.05884560599954709</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5386369085662849</v>
       </c>
       <c r="E86" t="n">
-        <v>1.366408474369969</v>
+        <v>1.374462730213665</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.760593002675223</v>
+        <v>-1.759808354143254</v>
       </c>
       <c r="G86" t="n">
-        <v>0.07576001547704428</v>
+        <v>0.0780911377956906</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4404158748485058</v>
       </c>
       <c r="E87" t="n">
-        <v>1.377204671522971</v>
+        <v>1.38609787955832</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.571295954080677</v>
+        <v>-1.570944160807067</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06996132903417254</v>
+        <v>0.07232550575436618</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3481521831738123</v>
       </c>
       <c r="E88" t="n">
-        <v>1.371332006181398</v>
+        <v>1.380961855165515</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.424703618266141</v>
+        <v>-1.424660332740305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09884143187179757</v>
+        <v>0.101361436485</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2644104945026098</v>
       </c>
       <c r="E89" t="n">
-        <v>1.38307261480718</v>
+        <v>1.392872457856398</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.230797841684427</v>
+        <v>-1.230545998625019</v>
       </c>
       <c r="G89" t="n">
-        <v>0.09234073290082573</v>
+        <v>0.09468759541068505</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1917038964355168</v>
       </c>
       <c r="E90" t="n">
-        <v>1.322924622124916</v>
+        <v>1.332478918191212</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.06537394110265</v>
+        <v>-1.06532593351945</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1017895696859938</v>
+        <v>0.1041742086547643</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1313753551334071</v>
       </c>
       <c r="E91" t="n">
-        <v>1.260988543720856</v>
+        <v>1.270048597783062</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8745658341516557</v>
+        <v>-0.8743572766180834</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06946393899184153</v>
+        <v>0.07178561719576004</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08555066226197469</v>
       </c>
       <c r="E92" t="n">
-        <v>1.245914162596159</v>
+        <v>1.254849869147783</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.708775187114615</v>
+        <v>-0.7082195583647958</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05214500660017006</v>
+        <v>0.05463667886918905</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.05443638769293496</v>
       </c>
       <c r="E93" t="n">
-        <v>1.225037946990348</v>
+        <v>1.233477837518762</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.533590006952091</v>
+        <v>-0.5331996502100084</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03350862020396992</v>
+        <v>0.03562410190299804</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03872014297770158</v>
       </c>
       <c r="E94" t="n">
-        <v>1.192332977687962</v>
+        <v>1.200530469271696</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4000596688156685</v>
+        <v>-0.3987516589258676</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01409781640008984</v>
+        <v>0.01655328622931891</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03629978750319759</v>
       </c>
       <c r="E95" t="n">
-        <v>1.158767019926225</v>
+        <v>1.166100375012365</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.264399682808126</v>
+        <v>-0.2631420415302068</v>
       </c>
       <c r="G95" t="n">
-        <v>0.008231447135002172</v>
+        <v>0.01046183222988525</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04449639687712571</v>
       </c>
       <c r="E96" t="n">
-        <v>1.127555794769954</v>
+        <v>1.134966276793038</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1555468164554557</v>
+        <v>-0.1537886370969628</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02674325774029911</v>
+        <v>-0.0244231535555019</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05795333154895625</v>
       </c>
       <c r="E97" t="n">
-        <v>1.073850262351174</v>
+        <v>1.080990013085394</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.07377337506564235</v>
+        <v>-0.0720277878601199</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05718163950801181</v>
+        <v>-0.05478755642451347</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0715656276262847</v>
       </c>
       <c r="E98" t="n">
-        <v>1.009701113062565</v>
+        <v>1.015931080744673</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06369965268931796</v>
+        <v>-0.06235071830236327</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08253121745655939</v>
+        <v>-0.08036221910740704</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08072119569126428</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9553423627084455</v>
+        <v>0.9608388374800275</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.001261462185562276</v>
+        <v>0.0002952427254041045</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.119161790447469</v>
+        <v>-0.1168102058802458</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.08539136418406235</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9312205196745125</v>
+        <v>0.9356592535965804</v>
       </c>
       <c r="F100" t="n">
-        <v>0.04600633202709738</v>
+        <v>0.0469759278058186</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1210018188002695</v>
+        <v>-0.1188438385849662</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.08722561681693981</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8673783041145566</v>
+        <v>0.8710489167054298</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07143461093171</v>
+        <v>0.07250336991507315</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1522413763007242</v>
+        <v>-0.1504454204833202</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.09036503933087367</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8018975346493267</v>
+        <v>0.8044757779700172</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1145989372951387</v>
+        <v>0.1151891944656265</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1442422111262742</v>
+        <v>-0.1426666179858522</v>
       </c>
     </row>
   </sheetData>
